--- a/data/operator_def_3.xlsx
+++ b/data/operator_def_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19E8BE-BEBC-7541-ABD2-090BE4BE9F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B4EA9C-2007-264A-98D8-7051136026CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1540" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
+    <workbookView xWindow="1400" yWindow="1420" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>electronics_transform</t>
   </si>
   <si>
-    <t>?AIk &lt;= ?C(?Rk)</t>
-  </si>
-  <si>
     <t>housing_transform</t>
   </si>
   <si>
@@ -76,13 +73,16 @@
   </si>
   <si>
     <t>?ARi &lt;= ?Cj1(?Ri)</t>
+  </si>
+  <si>
+    <t>?ARk &lt;= ?C(?Rk)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +100,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +158,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B5BFC-574A-244D-8E0C-16B41A28F5E3}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -474,42 +494,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="17">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="17">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -517,30 +537,30 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="34">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1">

--- a/data/operator_def_3.xlsx
+++ b/data/operator_def_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B4EA9C-2007-264A-98D8-7051136026CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215AC7B6-EC5A-9D49-ADB8-30473FF0FB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1420" windowWidth="23620" windowHeight="15460" xr2:uid="{ED844C13-9B21-4E40-B03F-93EF884CFD31}"/>
   </bookViews>
@@ -45,15 +45,6 @@
     <t>housing_transform</t>
   </si>
   <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 1) (R2 2)) (OUTPUTS (R1 1) (R21 1) (R21’ 1)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2) (R21 2)) (OUTPUTS (R22 2) (R22’ 2) (R1 3)))</t>
-  </si>
-  <si>
-    <t>(TRANSFORM ?C (INPUTS (R1 5) (R2 1) (R3 5) (R21 3)) (OUTPUTS (R1 5) (R23 1) (R23’ 1)))</t>
-  </si>
-  <si>
     <t>Operation Name</t>
   </si>
   <si>
@@ -76,6 +67,15 @@
   </si>
   <si>
     <t>?ARk &lt;= ?C(?Rk)</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 1) (R2 2)) (OUTPUTS (R1 1) (R21 1) (R21' 1)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 3) (R2 2) (R21 2)) (OUTPUTS (R22 2) (R22' 2) (R1 3)))</t>
+  </si>
+  <si>
+    <t>(TRANSFORM ?C (INPUTS (R1 5) (R2 1) (R3 5) (R21 3)) (OUTPUTS (R1 5) (R23 1) (R23' 1)))</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -495,10 +495,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -509,13 +509,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="17">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -523,13 +523,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -537,30 +537,30 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="34">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1">
